--- a/MaterialesPrueba.xlsx
+++ b/MaterialesPrueba.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\OneDrive\Escritorio\dinoexpress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA2899-CA74-442F-8D51-1E50AF073129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>idsubproductocom</t>
   </si>
@@ -37,9 +46,6 @@
     <t>Cemento Pacasmayo Extraforte</t>
   </si>
   <si>
-    <t>SOL</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSUG0XIu78MhBMVbPooeHvL-1vEiXGnZP4VGw&amp;s</t>
   </si>
   <si>
@@ -70,53 +76,100 @@
     <t>CPS</t>
   </si>
   <si>
-    <t>https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/sodimacPE/2210029_01/w=800,h=800,fit=pad</t>
-  </si>
-  <si>
     <t>000000000000406226</t>
   </si>
   <si>
     <t>Fierro Sider barra 5/9</t>
   </si>
   <si>
-    <t>https://distribuidoraferreteriaacapulcoconstruccioneseirl.com/wp-content/uploads/2023/04/sider-peru.jpg</t>
+    <t>https://promart.vteximg.com.br/arquivos/ids/637358-1000-1000/95350.jpg?v=637438475564800000</t>
+  </si>
+  <si>
+    <t>Cemento Mochica GU</t>
+  </si>
+  <si>
+    <t>Sider</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/chat_attachment/AP1Ws4tlGRND-rd-9WlmLzvUtux1t295Iup953X2UneZYaxwfKLfuVuOl9ayLMqF5TwlA399QjRW6zOfSTe3qaHFxqvyTDn6Ky9J19d3QBQfGrQNaImXMP2K_dalu6-ApEwHyMwe_NIFnj9v497HUPllv4wmqvVmVgIfNsytg5_GBbHwvFBrQn_m2mk7zm1H3srFPrd5c71He5AvutKf6MbvitucfU_XF45w5FKpT8okGhdj2A9nJLJQozObqAWZUbR2LAil3DE9OifuimxlM2dJnbxOgIeO3rP1yQwUK5jhv5P7NE_CmYxgh2-j6Toi3lSZ4Rs=w1919-h912</t>
+  </si>
+  <si>
+    <t>https://imagedelivery.net/4fYuQyy-r8_rpBpcY7lH_A/sodimacPE/485837_01/w=800,h=800,fit=pad</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Ladrillo Techo 12H</t>
+  </si>
+  <si>
+    <t>000000000000405878</t>
+  </si>
+  <si>
+    <t>Tubo de agua 3/4</t>
+  </si>
+  <si>
+    <t>000000000000445878</t>
+  </si>
+  <si>
+    <t>https://ferreman.pe/wp-content/uploads/2023/07/tuberia-simple-presion-2.jpg</t>
+  </si>
+  <si>
+    <t>https://equipindustry-bucket-inventories-prod.s3.us-east-1.amazonaws.com/Siderperu/images/siderperu_9m.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,57 +177,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6C0B2A01-83E2-4F94-99E6-67C232AC14D7}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -364,20 +416,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,12 +464,12 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3">
-        <v>6012.0</v>
+        <v>6012</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -420,151 +477,216 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>146.0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>6012.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>146</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>146.0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>6012.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>101.0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6012.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>146</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6012.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{C1A16164-0E95-49A2-A224-60C7D8B8AFEA}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{D89E44EE-0A85-4A8D-BAE5-137E6B6B090F}"/>
+    <hyperlink ref="F6" r:id="rId6" display="https://lh3.googleusercontent.com/chat_attachment/AP1Ws4tlGRND-rd-9WlmLzvUtux1t295Iup953X2UneZYaxwfKLfuVuOl9ayLMqF5TwlA399QjRW6zOfSTe3qaHFxqvyTDn6Ky9J19d3QBQfGrQNaImXMP2K_dalu6-ApEwHyMwe_NIFnj9v497HUPllv4wmqvVmVgIfNsytg5_GBbHwvFBrQn_m2mk7zm1H3srFPrd5c71He5AvutKf6MbvitucfU_XF45w5FKpT8okGhdj2A9nJLJQozObqAWZUbR2LAil3DE9OifuimxlM2dJnbxOgIeO3rP1yQwUK5jhv5P7NE_CmYxgh2-j6Toi3lSZ4Rs=w1919-h912" xr:uid="{E66621ED-F61A-4D88-8895-02FC0DF228D2}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{87BD449A-F287-453C-BDEE-61D9BFA98146}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>